--- a/biology/Zoologie/Hydrophis_brookii/Hydrophis_brookii.xlsx
+++ b/biology/Zoologie/Hydrophis_brookii/Hydrophis_brookii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrophis brookii ou Hydrophide de Brook est une espèce de serpents de la famille des Elapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrophis brookii ou Hydrophide de Brook est une espèce de serpents de la famille des Elapidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans les eaux du Viêt Nam, de Thaïlande (nombreux dans le golfe de Thaïlande), de Malaisie et d'Indonésie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans les eaux du Viêt Nam, de Thaïlande (nombreux dans le golfe de Thaïlande), de Malaisie et d'Indonésie.
 L'Hydrophide de Brook se trouve le long des côtes , dans les eaux mêlées et saumâtres des estuaires et aussi en eaux douces. Il est particulièrement abondant dans le lac Songkhla en Thaïlande.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hydrophide de Brook mesure jusqu'à 1 m de long. Son corps est blanc bleuté avec 60 à 80 barres sombres[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hydrophide de Brook mesure jusqu'à 1 m de long. Son corps est blanc bleuté avec 60 à 80 barres sombres.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Günther, 1872 : On the reptiles and amphibians of Borneo. Proceedings of the Zoological Society of London, vol. 1872, p. 586-600 (texte intégral).</t>
         </is>
